--- a/SGCM/ENTREGABLES/Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes  Perfil Capturador.xlsx
+++ b/SGCM/ENTREGABLES/Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes  Perfil Capturador.xlsx
@@ -5731,13 +5731,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1723582</xdr:colOff>
+          <xdr:colOff>1714057</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>313439</xdr:colOff>
+          <xdr:colOff>246764</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -5778,13 +5778,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1723582</xdr:colOff>
+          <xdr:colOff>1714057</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>313439</xdr:colOff>
+          <xdr:colOff>246764</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -12416,9 +12416,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12933,7 +12933,7 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>139</v>
@@ -12945,7 +12945,7 @@
         <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>140</v>
@@ -13056,7 +13056,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>142</v>
@@ -13069,7 +13069,7 @@
         <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>141</v>
@@ -14661,18 +14661,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId10" name="Control 16">
+        <control shapeId="3090" r:id="rId10" name="Control 18">
           <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:colOff>1714500</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14681,23 +14681,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId10" name="Control 16"/>
+        <control shapeId="3090" r:id="rId10" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId12" name="Control 18">
+        <control shapeId="3088" r:id="rId12" name="Control 16">
           <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:colOff>1714500</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14706,7 +14706,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId12" name="Control 18"/>
+        <control shapeId="3088" r:id="rId12" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SGCM/ENTREGABLES/Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes  Perfil Capturador.xlsx
+++ b/SGCM/ENTREGABLES/Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes  Perfil Capturador.xlsx
@@ -18,8 +18,9 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5731,13 +5732,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1714057</xdr:colOff>
+          <xdr:colOff>1704532</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>246764</xdr:colOff>
+          <xdr:colOff>180089</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -5778,13 +5779,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1714057</xdr:colOff>
+          <xdr:colOff>1704532</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>246764</xdr:colOff>
+          <xdr:colOff>180089</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -11725,7 +11726,85 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item h="1" x="2"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11833,8 +11912,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:F50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12056,84 +12135,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item h="1" x="2"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -12416,9 +12417,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14661,18 +14662,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId10" name="Control 18">
+        <control shapeId="3088" r:id="rId10" name="Control 16">
           <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1714500</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14681,23 +14682,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId10" name="Control 18"/>
+        <control shapeId="3088" r:id="rId10" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId12" name="Control 16">
+        <control shapeId="3090" r:id="rId12" name="Control 18">
           <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1714500</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14706,7 +14707,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId12" name="Control 16"/>
+        <control shapeId="3090" r:id="rId12" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
